--- a/Copy of resumes_Milkiland_NV_VR (CMO).xlsx
+++ b/Copy of resumes_Milkiland_NV_VR (CMO).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\o.lukasevych\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\o.lukasevych\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="439">
   <si>
     <t>Андрей Вадимович</t>
   </si>
@@ -2698,10 +2698,25 @@
     <t>отправлен email</t>
   </si>
   <si>
-    <t>pn@bigmir.net</t>
-  </si>
-  <si>
     <t>уже работал в Milkiland</t>
+  </si>
+  <si>
+    <t>11.11.19</t>
+  </si>
+  <si>
+    <t>meeting_date_VR</t>
+  </si>
+  <si>
+    <t>13.11.19</t>
+  </si>
+  <si>
+    <t>15.11.19</t>
+  </si>
+  <si>
+    <t>meeting_date_AI</t>
+  </si>
+  <si>
+    <t>email_sent</t>
   </si>
 </sst>
 </file>
@@ -4486,11 +4501,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,9 +4522,10 @@
     <col min="10" max="10" width="40" style="3" customWidth="1"/>
     <col min="11" max="11" width="33.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>273</v>
       </c>
@@ -4517,13 +4533,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="17" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -4566,8 +4582,17 @@
       <c r="N3" s="14" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -4600,8 +4625,11 @@
       <c r="O4" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -4631,7 +4659,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -4664,7 +4692,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -4703,7 +4731,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -4736,7 +4764,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -4771,7 +4799,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
@@ -4803,7 +4831,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
@@ -4838,8 +4866,11 @@
       <c r="O11" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>58</v>
       </c>
@@ -4871,7 +4902,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
@@ -4904,7 +4935,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>71</v>
       </c>
@@ -4940,10 +4971,10 @@
         <v>427</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -4981,7 +5012,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>78</v>
       </c>
@@ -5013,7 +5044,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>85</v>
       </c>
@@ -5049,7 +5080,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>91</v>
       </c>
@@ -5084,8 +5115,11 @@
       <c r="O18" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>98</v>
       </c>
@@ -5116,7 +5150,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>104</v>
       </c>
@@ -5152,7 +5186,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
@@ -5177,7 +5211,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>114</v>
       </c>
@@ -5210,11 +5244,9 @@
       <c r="O22" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="P22" s="19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>120</v>
       </c>
@@ -5247,7 +5279,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>126</v>
       </c>
@@ -5283,7 +5315,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>133</v>
       </c>
@@ -5321,7 +5353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>140</v>
       </c>
@@ -5353,7 +5385,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
@@ -5391,7 +5423,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>152</v>
       </c>
@@ -5424,7 +5456,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>158</v>
       </c>
@@ -5457,7 +5489,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>163</v>
       </c>
@@ -5491,8 +5523,14 @@
       <c r="O30" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>133</v>
       </c>
@@ -5524,7 +5562,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>175</v>
       </c>
